--- a/Documents/OAD address.xlsx
+++ b/Documents/OAD address.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Empty</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,12 +55,6 @@
   </si>
   <si>
     <t>0x6000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OAD Target App,
-Interrupt Vectors, RCFG
-(4KB)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -147,16 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OAD image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OAD Target App
-(Image A)
-(20KB)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x0600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,6 +168,29 @@
     <t xml:space="preserve">
 One Page  4KB 
 Total 128KB 0-31 pages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OAD image part I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OAD Target App part I,
+Interrupt Vectors, RCFG
+(4KB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OAD Target App part II
+(20KB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OAD Target App also was called Image A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed area never be changed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -216,12 +223,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -363,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,37 +395,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -419,12 +418,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -432,12 +478,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -479,7 +528,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -514,7 +563,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -726,23 +775,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A20:G55"/>
+  <dimension ref="A20:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.25" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="20" spans="1:7" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -751,391 +800,402 @@
       <c r="F20" s="2"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="8"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" spans="1:7" ht="0.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="0.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
-      <c r="B23" s="8"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="9" t="s">
-        <v>17</v>
+      <c r="B24" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="8"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="8"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" ht="0.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="8"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="11"/>
-    </row>
-    <row r="29" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="5"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="5"/>
-      <c r="B31" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>16</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="22"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="22"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="22"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="14"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>14</v>
+      <c r="B35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="22"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="22"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="22"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C39" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="35"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="31"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="35"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="31"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="35"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="31"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="35"/>
+    </row>
+    <row r="43" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19"/>
+      <c r="I43" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+    </row>
+    <row r="44" spans="1:13" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="19"/>
+    </row>
+    <row r="46" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5"/>
+      <c r="B47" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I47" s="30"/>
+      <c r="J47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" spans="1:7" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="5"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="5"/>
-      <c r="B47" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="F47" s="3" t="s">
+    </row>
+    <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="3" t="s">
+    </row>
+    <row r="51" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G48" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="5"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="5"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="5"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" s="4" t="s">
+      <c r="B52" s="20"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F52" s="18"/>
+      <c r="G52" s="19"/>
+    </row>
+    <row r="53" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="3" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="18"/>
+      <c r="G53" s="19"/>
+    </row>
+    <row r="54" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="6" t="s">
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="12"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F54" s="26"/>
+      <c r="G54" s="28"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -1174,7 +1234,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1187,7 +1247,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
